--- a/procédé-besoin.xlsx
+++ b/procédé-besoin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017DF93-EEAA-F744-877E-8CF17C9884BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EF0904-CEE8-2E43-AB7D-F523DC2CA957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="520" windowWidth="14280" windowHeight="15940" xr2:uid="{2D2BE020-EB14-C04E-9FB5-FA35FC09F30F}"/>
+    <workbookView xWindow="-220" yWindow="500" windowWidth="14280" windowHeight="15940" xr2:uid="{2D2BE020-EB14-C04E-9FB5-FA35FC09F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
